--- a/Projetos.xlsx
+++ b/Projetos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victoria.santos\Projetos\BI_projetos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victoria.santos\Projetos\BI_PPGC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE02E40-608C-4CFA-93F0-A15C7B863E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F85B660-D946-46A0-BE37-B264D2AA5F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0AA1FE37-8769-456C-A5A8-4E121D0B4DDB}"/>
   </bookViews>
@@ -200,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -209,12 +209,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -226,6 +220,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,16 +569,16 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.109375" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -582,7 +588,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -599,13 +605,13 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="11">
         <v>45661</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -616,13 +622,13 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="11">
         <v>45964</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="7">
         <v>100</v>
       </c>
     </row>
@@ -633,13 +639,13 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="11">
         <v>45782</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>100</v>
       </c>
     </row>
@@ -650,13 +656,13 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="11">
         <v>45299</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>100</v>
       </c>
     </row>
@@ -664,16 +670,16 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="11">
         <v>45933</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>100</v>
       </c>
     </row>
@@ -684,13 +690,13 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>100</v>
       </c>
     </row>
@@ -701,13 +707,13 @@
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -718,13 +724,13 @@
       <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="12">
         <v>45997</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -732,16 +738,16 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="11">
         <v>45723</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -752,13 +758,13 @@
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="12">
         <v>45719</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -769,13 +775,13 @@
       <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="11">
         <v>45778</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -786,13 +792,13 @@
       <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="11">
         <v>45964</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -803,13 +809,13 @@
       <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="11">
         <v>45933</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -820,13 +826,13 @@
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -837,11 +843,11 @@
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="7">
         <v>0</v>
       </c>
     </row>
